--- a/biology/Médecine/Circoncision/Circoncision.xlsx
+++ b/biology/Médecine/Circoncision/Circoncision.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La circoncision, en latin : circumcisio, « fait de couper autour, découpe », désigne, dans sa forme la plus répandue, l’ablation totale ou partielle du prépuce, en supprimant ainsi ses fonctions et laissant le gland du pénis en permanence à découvert. Selon l’Organisation mondiale de la santé (OMS), en 2009, 661 millions d’hommes de plus de 15 ans seraient circoncis, soit environ 30 % de la population masculine adulte mondiale[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La circoncision, en latin : circumcisio, « fait de couper autour, découpe », désigne, dans sa forme la plus répandue, l’ablation totale ou partielle du prépuce, en supprimant ainsi ses fonctions et laissant le gland du pénis en permanence à découvert. Selon l’Organisation mondiale de la santé (OMS), en 2009, 661 millions d’hommes de plus de 15 ans seraient circoncis, soit environ 30 % de la population masculine adulte mondiale.
 La circoncision peut être effectuée pour des raisons thérapeutiques, notamment dans le traitement des phimosis et des paraphimosis ; elle est alors appelée « posthectomie » (du grec posthe : prépuce ; ectomie : excision).
-La circoncision rituelle a été pratiquée pour des motifs culturels et religieux depuis l'Antiquité en Égypte antique puis dans le judaïsme et l'islam. Ce rite est également en usage chez certaines communautés chrétiennes (notamment orientales). La circoncision requiert systématiquement des conditions incontournables d'hygiène et d'asepsie, ainsi qu'une prise en charge de la douleur adaptée, y compris lors des pratiques rituelles, ce qui est loin d'être universellement pratiqué[2],[3]. En effet, l'OMS souligne que « les circoncisions pour des raisons religieuses ou traditionnelles se déroulent souvent en milieu non médicalisé bien que, dans certaines cultures, elles aient de plus en plus lieu dans un cadre médical »[4],[5].
-Certaines populations pratiquent la circoncision pour des motifs davantage culturels que religieux, invoquant des raisons d'hygiène, de réduction des risques d’infection, mais également par tradition, cohésion sociale, identité, ou encore masculinité, à l'instar des États-Unis, des Philippines, ou de la Corée du Sud, pays dans lesquels la majorité des hommes sont circoncis. La pratique de la circoncision s’est accrue dans le monde occidental au début du XXe siècle jusqu'à devenir une opération de routine sur les nouveau-nés, mais elle y est toutefois en baisse forte mais variable depuis la seconde moitié du XXe siècle sauf aux États-Unis[6].
-Les positions des organisations médicales à propos de la circoncision prophylactique (prévention des maladies) des enfants et des adultes sont diverses et contradictoires. En effet, l'OMS et ONUSIDA recommandent la circoncision à tout âge afin de contrer le sida dans les zones à haute prévalence[7], quand l’Académie américaine de pédiatrie indique que « les avantages de la circoncision des nouveau-nés surpassent les risques »[8] et les Centres pour le contrôle et la prévention des maladies estiment que le personnel médical devrait informer tous les parents de garçons ainsi que tous les adolescents et hommes adultes non circoncis sur les bénéfices médicaux de la circoncision[9],[10]. Ces prises de position ont été contredites par les représentants de nombreuses associations médicales (essentiellement en Europe)[11], l'organisation suédoise estimant même que la circoncision non thérapeutique de mineurs devrait être interdite[12].
-Généralement pratiquée sur des enfants sans motifs médicaux impérieux, la circoncision soulève en effet à travers le monde de nombreuses questions liées à l'éthique, et elle est l'objet de controverses et de débats juridiques. C'est ainsi que le Conseil de l'Europe considère les circoncisions religieuses d'enfants comme une violation de leur intégrité physique[13],[14].
+La circoncision rituelle a été pratiquée pour des motifs culturels et religieux depuis l'Antiquité en Égypte antique puis dans le judaïsme et l'islam. Ce rite est également en usage chez certaines communautés chrétiennes (notamment orientales). La circoncision requiert systématiquement des conditions incontournables d'hygiène et d'asepsie, ainsi qu'une prise en charge de la douleur adaptée, y compris lors des pratiques rituelles, ce qui est loin d'être universellement pratiqué,. En effet, l'OMS souligne que « les circoncisions pour des raisons religieuses ou traditionnelles se déroulent souvent en milieu non médicalisé bien que, dans certaines cultures, elles aient de plus en plus lieu dans un cadre médical »,.
+Certaines populations pratiquent la circoncision pour des motifs davantage culturels que religieux, invoquant des raisons d'hygiène, de réduction des risques d’infection, mais également par tradition, cohésion sociale, identité, ou encore masculinité, à l'instar des États-Unis, des Philippines, ou de la Corée du Sud, pays dans lesquels la majorité des hommes sont circoncis. La pratique de la circoncision s’est accrue dans le monde occidental au début du XXe siècle jusqu'à devenir une opération de routine sur les nouveau-nés, mais elle y est toutefois en baisse forte mais variable depuis la seconde moitié du XXe siècle sauf aux États-Unis.
+Les positions des organisations médicales à propos de la circoncision prophylactique (prévention des maladies) des enfants et des adultes sont diverses et contradictoires. En effet, l'OMS et ONUSIDA recommandent la circoncision à tout âge afin de contrer le sida dans les zones à haute prévalence, quand l’Académie américaine de pédiatrie indique que « les avantages de la circoncision des nouveau-nés surpassent les risques » et les Centres pour le contrôle et la prévention des maladies estiment que le personnel médical devrait informer tous les parents de garçons ainsi que tous les adolescents et hommes adultes non circoncis sur les bénéfices médicaux de la circoncision,. Ces prises de position ont été contredites par les représentants de nombreuses associations médicales (essentiellement en Europe), l'organisation suédoise estimant même que la circoncision non thérapeutique de mineurs devrait être interdite.
+Généralement pratiquée sur des enfants sans motifs médicaux impérieux, la circoncision soulève en effet à travers le monde de nombreuses questions liées à l'éthique, et elle est l'objet de controverses et de débats juridiques. C'est ainsi que le Conseil de l'Europe considère les circoncisions religieuses d'enfants comme une violation de leur intégrité physique,.
 </t>
         </is>
       </c>
@@ -518,11 +530,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Histoire et historiographie
-Les plus anciens témoignages attestés de la circoncision remontent à l’Égypte antique, les représentations de l’ablation du prépuce sur des dessins rupestres étant sujettes à débats[15],[16],[17]. La circoncision est donc clairement représentée sur des hiéroglyphes de tombeaux égyptiens[18]. La circoncision est mentionnée au Ve siècle av. J.-C. par Hérodote qui l’évoque au second livre de ses Histoires et en attribue la paternité aux Égyptiens mais aussi aux Éthiopiens (nom qui, dans l'Antiquité, désignait les Nubiens du Soudan) et aux habitants de la Colchide. Cette paternité est confirmée par de nombreux vestiges archéologiques, le plus ancien étant une gravure du tombeau d’Ankhmahor (6e dynastie, entre - 2300 et - 2200), à Saqqarah, qui représente une circoncision pratiquée avec un silex sur un homme debout. Dans l’Antiquité, si la circoncision était pratiquée par les Égyptiens, elle faisait horreur aux Grecs et aux Romains, qui assimilaient la perte du prépuce à une mutilation[19]. C'est ce qui explique que les conquêtes d'Alexandre le Grand firent reculer cette pratique.
-L'historien Hérodote explique la circoncision par une prescription hygiénique[20]. Dans le monde juif, le philosophe Philon d’Alexandrie rejoint Hérodote quant aux vertus hygiéniques de la circoncision mais s'oppose à lui quand il considère la circoncision comme une renonciation symbolique aux péchés de la chair, tandis que le théologien Maïmonide y voit une diminution de la concupiscence et du plaisir souhaitable pour des raisons morales[21].
-Une autre interprétation religieuse fait de ce rite une forme édulcorée de sacrifice : plutôt que d’offrir son corps entier à la divinité qui lui a donné la vie, l’homme lui fait présent d’une petite partie de sa chair[22].
-Théologies et ethnologie</t>
+          <t>Histoire et historiographie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plus anciens témoignages attestés de la circoncision remontent à l’Égypte antique, les représentations de l’ablation du prépuce sur des dessins rupestres étant sujettes à débats. La circoncision est donc clairement représentée sur des hiéroglyphes de tombeaux égyptiens. La circoncision est mentionnée au Ve siècle av. J.-C. par Hérodote qui l’évoque au second livre de ses Histoires et en attribue la paternité aux Égyptiens mais aussi aux Éthiopiens (nom qui, dans l'Antiquité, désignait les Nubiens du Soudan) et aux habitants de la Colchide. Cette paternité est confirmée par de nombreux vestiges archéologiques, le plus ancien étant une gravure du tombeau d’Ankhmahor (6e dynastie, entre - 2300 et - 2200), à Saqqarah, qui représente une circoncision pratiquée avec un silex sur un homme debout. Dans l’Antiquité, si la circoncision était pratiquée par les Égyptiens, elle faisait horreur aux Grecs et aux Romains, qui assimilaient la perte du prépuce à une mutilation. C'est ce qui explique que les conquêtes d'Alexandre le Grand firent reculer cette pratique.
+L'historien Hérodote explique la circoncision par une prescription hygiénique. Dans le monde juif, le philosophe Philon d’Alexandrie rejoint Hérodote quant aux vertus hygiéniques de la circoncision mais s'oppose à lui quand il considère la circoncision comme une renonciation symbolique aux péchés de la chair, tandis que le théologien Maïmonide y voit une diminution de la concupiscence et du plaisir souhaitable pour des raisons morales.
+Une autre interprétation religieuse fait de ce rite une forme édulcorée de sacrifice : plutôt que d’offrir son corps entier à la divinité qui lui a donné la vie, l’homme lui fait présent d’une petite partie de sa chair.
+</t>
         </is>
       </c>
     </row>
@@ -550,32 +567,138 @@
           <t>Judaïsme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le judaïsme la circoncision est un des  613 commandements de la Torah[23].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le judaïsme la circoncision est un des  613 commandements de la Torah.
 La pratique de la circoncision dite Brit Milah s'effectue le huitième jour à partir du jour de la naissance (Genèse, 17), sauf avis médical contraire. La circoncision peut également être pratiquée post mortem dans le cadre de la Tahara.
-Dans le Talmud de Babylone (Yebamoth 64b), il est toutefois précisé que le nouveau-né est exempté si la circoncision a entraîné la mort de 2 ou 3 de ses frères ou de ses cousins[24],[25]. De nos jours, des tests de coagulation de sang sont pratiqués systématiquement les jours précédents la circoncision pour éviter tout risque lié à l'hémophilie[26].
-Après l'opération, il est procédé à une bénédiction durant laquelle l’enfant reçoit son prénom hébraïque, en lui souhaitant de grandir en juif et de transmettre un jour à son tour, son héritage[26].
-La circoncision dans la Torah
-La première référence biblique se trouve dans le récit d'Abraham (Genèse 17, 11) auquel Dieu prescrit de se circoncire (avec Ismaël et toute sa maison) en signe d'Alliance, alors qu'il est âgé de 99 ans. En effet, en hébreu "Brit" signifie "alliance", et "milah" signifie littéralement un "mot" mais également "circoncision". L'alliance entre Dieu et Abraham se déroula en plusieurs étapes:
-La première est le changement de nom d'Abraham. La brit milah entraine un changement d'identité chez Abraham et donc de nom[27](Genèse 17, 4-5): «Moi-même, voici mon alliance avec toi : tu seras le père d'une multitude de nations, ton nom ne s'énoncera plus, désormais, Abram: ton nom sera Abraham, car je te fais le père d'une multitude de nations.»
+Dans le Talmud de Babylone (Yebamoth 64b), il est toutefois précisé que le nouveau-né est exempté si la circoncision a entraîné la mort de 2 ou 3 de ses frères ou de ses cousins,. De nos jours, des tests de coagulation de sang sont pratiqués systématiquement les jours précédents la circoncision pour éviter tout risque lié à l'hémophilie.
+Après l'opération, il est procédé à une bénédiction durant laquelle l’enfant reçoit son prénom hébraïque, en lui souhaitant de grandir en juif et de transmettre un jour à son tour, son héritage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Circoncision</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Circoncision</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Judaïsme</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La circoncision dans la Torah</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La première référence biblique se trouve dans le récit d'Abraham (Genèse 17, 11) auquel Dieu prescrit de se circoncire (avec Ismaël et toute sa maison) en signe d'Alliance, alors qu'il est âgé de 99 ans. En effet, en hébreu "Brit" signifie "alliance", et "milah" signifie littéralement un "mot" mais également "circoncision". L'alliance entre Dieu et Abraham se déroula en plusieurs étapes:
+La première est le changement de nom d'Abraham. La brit milah entraine un changement d'identité chez Abraham et donc de nom(Genèse 17, 4-5): «Moi-même, voici mon alliance avec toi : tu seras le père d'une multitude de nations, ton nom ne s'énoncera plus, désormais, Abram: ton nom sera Abraham, car je te fais le père d'une multitude de nations.»
 La deuxième porte sur le contenu de l'alliance: la promesse d'une descendance nombreuse, d'une alliance éternelle et le don de la terre de Canaan à Abraham et à sa descendance (Genèse 17, 6-8): «Je te ferai fructifier prodigieusement; je ferai de toi des peuples, et des rois seront tes descendants; cette alliance, établie entre moi et entre toi et ta postérité après toi, je l'érigerai en alliance perpétuelle, étant pour toi un Dieu comme pour ta postérité après toi; et je donnerai à toi et à ta postérité la terre de tes pérégrinations, toute la terre de Canaan, comme possession éternelle; et je serai pour eux un Dieu tutélaire..»
-S'ensuit le commandement de la circoncision (Genèse 17, 9-14): «Toi et tes descendants, de génération en génération, vous devrez respecter mon alliance. Voici l'obligation que je vous impose et à laquelle vous vous soumettrez, toi et tes descendants: Quiconque est parmi vous de sexe masculin devra être circoncis. Votre circoncision sera le signe de l'alliance établie entre vous et moi. De génération en génération, tous vos garçons seront circoncis quand ils auront huit jours. De même pour les esclaves nés chez toi ou pour les esclaves étrangers que tu as achetés et qui ne sont donc pas membres de ton clan. Ainsi l'esclave né chez toi et celui que tu auras acheté seront circoncis, afin que mon alliance soit inscrite dans votre chair comme une alliance perpétuelle. Quant à l'homme non circoncis, il sera exclu du peuple pour n'avoir pas respecté les obligations de mon alliance ». Son fils Isaac fut le premier circoncis à huit jours, alors que son frère aîné, Ismaël avait déjà atteint l'adolescence lorsqu'il fut circoncis avec Abraham[28] (Genèse XVII, 23-26).
-En conclusion, Dieu précise à Abraham que cette alliance se poursuivra avec Isaac et non avec Ismaël[29](Genèse 17, 20-21): «Quant à Ismaël, je t'ai exaucé: oui, je l'ai béni; je le ferai fructifier et multiplier à l'infini; il engendra douze princes, et je le ferai devenir une grande nation; concernant mon alliance, je l'établirai avec Isaac, que Sarah t'enfantera à pareille époque, l’année prochaine.»
-Dans le Lévitique, il est rappelé qu'après l'accouchement d'une femme, « Le huitième jour, on circoncit l'enfant »[30].
-Les raisons de la circoncision selon le judaïsme
-Le rite obligatoire de la circoncision est si important dans le judaïsme que le Talmud (TB Nedarim 31b) affirme même que ce Commandement vaut tous les autres.
+S'ensuit le commandement de la circoncision (Genèse 17, 9-14): «Toi et tes descendants, de génération en génération, vous devrez respecter mon alliance. Voici l'obligation que je vous impose et à laquelle vous vous soumettrez, toi et tes descendants: Quiconque est parmi vous de sexe masculin devra être circoncis. Votre circoncision sera le signe de l'alliance établie entre vous et moi. De génération en génération, tous vos garçons seront circoncis quand ils auront huit jours. De même pour les esclaves nés chez toi ou pour les esclaves étrangers que tu as achetés et qui ne sont donc pas membres de ton clan. Ainsi l'esclave né chez toi et celui que tu auras acheté seront circoncis, afin que mon alliance soit inscrite dans votre chair comme une alliance perpétuelle. Quant à l'homme non circoncis, il sera exclu du peuple pour n'avoir pas respecté les obligations de mon alliance ». Son fils Isaac fut le premier circoncis à huit jours, alors que son frère aîné, Ismaël avait déjà atteint l'adolescence lorsqu'il fut circoncis avec Abraham (Genèse XVII, 23-26).
+En conclusion, Dieu précise à Abraham que cette alliance se poursuivra avec Isaac et non avec Ismaël(Genèse 17, 20-21): «Quant à Ismaël, je t'ai exaucé: oui, je l'ai béni; je le ferai fructifier et multiplier à l'infini; il engendra douze princes, et je le ferai devenir une grande nation; concernant mon alliance, je l'établirai avec Isaac, que Sarah t'enfantera à pareille époque, l’année prochaine.»
+Dans le Lévitique, il est rappelé qu'après l'accouchement d'une femme, « Le huitième jour, on circoncit l'enfant ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Circoncision</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Circoncision</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Judaïsme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Les raisons de la circoncision selon le judaïsme</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rite obligatoire de la circoncision est si important dans le judaïsme que le Talmud (TB Nedarim 31b) affirme même que ce Commandement vaut tous les autres.
 De nombreux rabbins ont traité dans leurs ouvrages des raisons et des fondements spirituels de cette mitzva (commandement):
-Rabbi Akiva, sage de la michna, explique que l'acte de la Brit Mila participe au parachèvement de l'homme[31]. En effet, lors de la création de l'homme et de la femme, Dieu dit:" Créons l'homme à notre image" , les commentateurs bibliques s'interrogent sur la forme pluriel du verbe "créer" utilisé dans ce verset, à priori Dieu est le seul créateur; Na'hmanide explique que cela signifie que Dieu donna le mérite à l'être humain de participer au parachèvement de sa propre création[32]. Selon le judaïsme il existe différentes voies pour compléter la création, l'une d'elles sera, selon Rabbi Akiva, la Brit Mila. C'est une des raisons pour laquelle il n'existe pas d'équivalent de la Brit Mila pour les femmes, elles sont même selon le talmud, considérées comme ayant déjà subi la circoncision[33], cela vient exprimer un degré de perfection plus grand chez les femmes[34].
+Rabbi Akiva, sage de la michna, explique que l'acte de la Brit Mila participe au parachèvement de l'homme. En effet, lors de la création de l'homme et de la femme, Dieu dit:" Créons l'homme à notre image" , les commentateurs bibliques s'interrogent sur la forme pluriel du verbe "créer" utilisé dans ce verset, à priori Dieu est le seul créateur; Na'hmanide explique que cela signifie que Dieu donna le mérite à l'être humain de participer au parachèvement de sa propre création. Selon le judaïsme il existe différentes voies pour compléter la création, l'une d'elles sera, selon Rabbi Akiva, la Brit Mila. C'est une des raisons pour laquelle il n'existe pas d'équivalent de la Brit Mila pour les femmes, elles sont même selon le talmud, considérées comme ayant déjà subi la circoncision, cela vient exprimer un degré de perfection plus grand chez les femmes.
 Pour le théologien Maïmonide, l’une des plus éminentes autorités rabbiniques du Moyen Âge, l'un des motifs de la circoncision est d'infliger une douleur corporelle à l'organe sexuel, de l'affaiblir et de réduire ainsi la concupiscence et parfois la volupté.
 La circoncision est à mettre en parallèle avec la « circoncision du cœur » évoquée dans le Deutéronome (10:16-17 et 30, 6), chez Ezéchiel (44:7) et Jérémie (4,4…) qui représente la dimension morale et symbolique de l'Alliance.
-Points de vue
-La circoncision est plusieurs fois interdite par les dirigeants non-juifs[35]. Quand la Judée est soumise aux successeurs d’Alexandre le Grand, la circoncision est contestée par les Juifs hellénisés. La querelle tourne à l’affrontement quand le roi Antiochos IV Épiphane veut soumettre la population à une hellénisation forcée impliquant l’abandon de la circoncision. Cette tentative est, selon le Premier livre des Maccabées, une des causes de la révolte des Maccabées qui débouche sur l’avènement de la dynastie hellénisée des Hasmonéens. De même, une des causes de la seconde révolte juive vers 132-135 est l'interdiction de la circoncision.
-Dès 1842, les Amis de la réforme, une association du judaïsme réformé, prennent position pour l'abolition de la circoncision et son remplacement par un rite sans faire couler le sang qui concernerait aussi les filles[36], le théologien Abraham Geiger parlant de la circoncision comme d'un « acte sanglant et barbare »[37] (bien que ce dernier ne soit pas en faveur de sa disparition).
-Au temps du Troisième Reich, tout individu circoncis était traqué sur la base d'une présomption d'appartenance religieuse[38],[39],[40].
-Actuellement, chez les Juifs libéraux américains, il existe un mouvement qui s’oppose à la circoncision : Jews against circumcision[41]. Ce mouvement préconise l’abandon de cette pratique et le remplacement de la Brit Milah par une nouvelle cérémonie, la Brit Shalom.
-La Brit Milah s'effectuant au huitième jour de vie de l'enfant, des études contemporaines montrent que d'un point de vue médical, il faut en moyenne sept jours pour que les saignements du nouveau-né liés à la carence en vitamine K (nécessaire à la coagulation du sang) cessent[42],[43].
-Quant à elle, l’AMIF (Association des médecins israélites de France) est favorable à la circoncision : « La circoncision un geste d’avenir ! »[44]. Ce rite est également considéré comme « nécessaire pour la future construction psychique et identitaire de l’enfant juif »[26].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Circoncision</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Circoncision</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Judaïsme</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Points de vue</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La circoncision est plusieurs fois interdite par les dirigeants non-juifs. Quand la Judée est soumise aux successeurs d’Alexandre le Grand, la circoncision est contestée par les Juifs hellénisés. La querelle tourne à l’affrontement quand le roi Antiochos IV Épiphane veut soumettre la population à une hellénisation forcée impliquant l’abandon de la circoncision. Cette tentative est, selon le Premier livre des Maccabées, une des causes de la révolte des Maccabées qui débouche sur l’avènement de la dynastie hellénisée des Hasmonéens. De même, une des causes de la seconde révolte juive vers 132-135 est l'interdiction de la circoncision.
+Dès 1842, les Amis de la réforme, une association du judaïsme réformé, prennent position pour l'abolition de la circoncision et son remplacement par un rite sans faire couler le sang qui concernerait aussi les filles, le théologien Abraham Geiger parlant de la circoncision comme d'un « acte sanglant et barbare » (bien que ce dernier ne soit pas en faveur de sa disparition).
+Au temps du Troisième Reich, tout individu circoncis était traqué sur la base d'une présomption d'appartenance religieuse.
+Actuellement, chez les Juifs libéraux américains, il existe un mouvement qui s’oppose à la circoncision : Jews against circumcision. Ce mouvement préconise l’abandon de cette pratique et le remplacement de la Brit Milah par une nouvelle cérémonie, la Brit Shalom.
+La Brit Milah s'effectuant au huitième jour de vie de l'enfant, des études contemporaines montrent que d'un point de vue médical, il faut en moyenne sept jours pour que les saignements du nouveau-né liés à la carence en vitamine K (nécessaire à la coagulation du sang) cessent,.
+Quant à elle, l’AMIF (Association des médecins israélites de France) est favorable à la circoncision : « La circoncision un geste d’avenir ! ». Ce rite est également considéré comme « nécessaire pour la future construction psychique et identitaire de l’enfant juif ».
 </t>
         </is>
       </c>
